--- a/Evaluation/1_Scan-Prozess/2_Geschwindigkeit/Zeitkomplexitaet_Scanprozess.xlsx
+++ b/Evaluation/1_Scan-Prozess/2_Geschwindigkeit/Zeitkomplexitaet_Scanprozess.xlsx
@@ -59,7 +59,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -87,6 +87,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,7 +168,874 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFB3B3B3"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFD320"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF420E"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF004586"/>
+      <rgbColor rgb="FF579D1C"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Zeitdauern Scan-Prozess</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>v_5_mm_per_s</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v_5_mm_per_s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$6:$C$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>18.27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38.118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47.928</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.458</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>87.804</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.574</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>108.138</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>118.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>128.286</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>139.044</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>148.596</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>158.538</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168.636</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>178.314</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>188.292</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>198.684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>208.914</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>218.28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>227.388</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>238.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>v_10_mm_per_s</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v_10_mm_per_s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$F$6:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>11.598</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.514</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.526</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41.688</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.724</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.066</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.802</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.988</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>77.994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>84.54</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>90.222</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>96.306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>102.36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>108.306</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>114.324</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>120.732</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>126.738</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>132.33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>137.982</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>146.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>v_15_mm_per_s</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v_15_mm_per_s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$I$6:$I$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>9.354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32.874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.728</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42.204</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47.112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51.774</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.484</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61.35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>66.288</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.836</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75.552</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>80.34</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85.026</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>89.706</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>94.584</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99.432</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>103.788</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>108.03</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>v_20_mm_per_s</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>v_20_mm_per_s</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$L$6:$L$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>8.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.542</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36.648</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44.724</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48.888</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.228</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>61.272</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>65.388</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.474</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>73.506</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77.472</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>81.756</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>85.878</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>89.652</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>93.552</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>103.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="5303974"/>
+        <c:axId val="70271045"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5303974"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Anzahl Haken</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70271045"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70271045"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Dauer [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5303974"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>587160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>639360</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11380680" y="870120"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -163,11 +1045,11 @@
   </sheetPr>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.86"/>
   </cols>
@@ -1778,5 +2660,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>